--- a/pred_ohlcv/54_23/2019-10-15 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-15 XRP ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3083,7 +3083,7 @@
         <v>341</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3244,7 +3244,7 @@
         <v>340</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>340</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -3290,7 +3290,7 @@
         <v>340</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>340</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>339</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -3359,7 +3359,7 @@
         <v>339</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -3428,7 +3428,7 @@
         <v>339</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>339</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>339</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>339</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>339</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -3612,7 +3612,7 @@
         <v>340</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>340</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -3658,7 +3658,7 @@
         <v>341</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>340</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -3704,10 +3704,10 @@
         <v>340</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3727,10 +3727,10 @@
         <v>340</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3750,10 +3750,10 @@
         <v>341</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3819,10 +3819,10 @@
         <v>339</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3842,7 +3842,7 @@
         <v>340</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>339</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -3888,7 +3888,7 @@
         <v>339</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>339</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         <v>339</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -3957,7 +3957,7 @@
         <v>340</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -4095,7 +4095,7 @@
         <v>339</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4187,10 +4187,10 @@
         <v>339</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4210,7 +4210,7 @@
         <v>339</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -4233,7 +4233,7 @@
         <v>338</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -4256,7 +4256,7 @@
         <v>338</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>338</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>338</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -4394,7 +4394,7 @@
         <v>338</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>338</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -4440,7 +4440,7 @@
         <v>339</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>339</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -4486,7 +4486,7 @@
         <v>339</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         <v>339</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4555,10 +4555,10 @@
         <v>339</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4578,10 +4578,10 @@
         <v>340</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4647,10 +4647,10 @@
         <v>339</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4670,10 +4670,10 @@
         <v>339</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4693,7 +4693,7 @@
         <v>340</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -4716,10 +4716,10 @@
         <v>339</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4739,10 +4739,10 @@
         <v>339</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4762,10 +4762,10 @@
         <v>340</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="G469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="G470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="G471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -11228,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="G473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="G476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="G533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="G551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="G552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="G553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="G554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -13137,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="G555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="G560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="G562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="G564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="G565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="G566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="G567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -13433,10 +13433,10 @@
         <v>342</v>
       </c>
       <c r="F568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -13456,10 +13456,10 @@
         <v>342</v>
       </c>
       <c r="F569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -13482,7 +13482,7 @@
         <v>1</v>
       </c>
       <c r="G570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -13502,10 +13502,10 @@
         <v>342</v>
       </c>
       <c r="F571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -13525,10 +13525,10 @@
         <v>342</v>
       </c>
       <c r="F572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -13548,10 +13548,10 @@
         <v>342</v>
       </c>
       <c r="F573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="G574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -13594,10 +13594,10 @@
         <v>342</v>
       </c>
       <c r="F575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -13640,7 +13640,7 @@
         <v>342</v>
       </c>
       <c r="F577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -13686,7 +13686,7 @@
         <v>342</v>
       </c>
       <c r="F579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -13709,10 +13709,10 @@
         <v>343</v>
       </c>
       <c r="F580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -13735,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="G581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="G582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="G583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -13801,10 +13801,10 @@
         <v>341</v>
       </c>
       <c r="F584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -13827,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="G585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -13847,10 +13847,10 @@
         <v>342</v>
       </c>
       <c r="F586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -13870,10 +13870,10 @@
         <v>342</v>
       </c>
       <c r="F587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -13893,10 +13893,10 @@
         <v>342</v>
       </c>
       <c r="F588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -13916,10 +13916,10 @@
         <v>343</v>
       </c>
       <c r="F589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -13939,10 +13939,10 @@
         <v>343</v>
       </c>
       <c r="F590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="G591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -13985,10 +13985,10 @@
         <v>342</v>
       </c>
       <c r="F592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -14008,10 +14008,10 @@
         <v>343</v>
       </c>
       <c r="F593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -14034,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="G594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="G662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663">
@@ -15621,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="G663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="G664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665">
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="G666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667">
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="G667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668">
@@ -15802,7 +15802,7 @@
         <v>348</v>
       </c>
       <c r="F671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G671" t="n">
         <v>2</v>
@@ -15848,7 +15848,7 @@
         <v>348</v>
       </c>
       <c r="F673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G673" t="n">
         <v>2</v>
@@ -15871,7 +15871,7 @@
         <v>347</v>
       </c>
       <c r="F674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G674" t="n">
         <v>2</v>
@@ -15894,7 +15894,7 @@
         <v>347</v>
       </c>
       <c r="F675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G675" t="n">
         <v>2</v>
@@ -16009,7 +16009,7 @@
         <v>347</v>
       </c>
       <c r="F680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G680" t="n">
         <v>2</v>
@@ -16032,7 +16032,7 @@
         <v>348</v>
       </c>
       <c r="F681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G681" t="n">
         <v>2</v>
@@ -16101,7 +16101,7 @@
         <v>348</v>
       </c>
       <c r="F684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G684" t="n">
         <v>2</v>
@@ -16124,7 +16124,7 @@
         <v>348</v>
       </c>
       <c r="F685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G685" t="n">
         <v>2</v>
@@ -16147,7 +16147,7 @@
         <v>348</v>
       </c>
       <c r="F686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G686" t="n">
         <v>2</v>
@@ -16193,7 +16193,7 @@
         <v>349</v>
       </c>
       <c r="F688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G688" t="n">
         <v>2</v>
@@ -16216,7 +16216,7 @@
         <v>350</v>
       </c>
       <c r="F689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G689" t="n">
         <v>2</v>
@@ -16239,7 +16239,7 @@
         <v>350</v>
       </c>
       <c r="F690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G690" t="n">
         <v>2</v>
@@ -16285,7 +16285,7 @@
         <v>348</v>
       </c>
       <c r="F692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G692" t="n">
         <v>2</v>
@@ -16308,7 +16308,7 @@
         <v>348</v>
       </c>
       <c r="F693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G693" t="n">
         <v>2</v>
@@ -16331,7 +16331,7 @@
         <v>348</v>
       </c>
       <c r="F694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G694" t="n">
         <v>2</v>
@@ -16354,7 +16354,7 @@
         <v>349</v>
       </c>
       <c r="F695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G695" t="n">
         <v>2</v>
@@ -16377,7 +16377,7 @@
         <v>348</v>
       </c>
       <c r="F696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G696" t="n">
         <v>2</v>
@@ -16400,7 +16400,7 @@
         <v>348</v>
       </c>
       <c r="F697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G697" t="n">
         <v>2</v>
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="G708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709">
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="G709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710">
@@ -16906,7 +16906,7 @@
         <v>350</v>
       </c>
       <c r="F719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G719" t="n">
         <v>2</v>
@@ -16952,7 +16952,7 @@
         <v>349</v>
       </c>
       <c r="F721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G721" t="n">
         <v>2</v>
@@ -16975,7 +16975,7 @@
         <v>350</v>
       </c>
       <c r="F722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G722" t="n">
         <v>2</v>
@@ -16998,7 +16998,7 @@
         <v>350</v>
       </c>
       <c r="F723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G723" t="n">
         <v>2</v>
@@ -17021,7 +17021,7 @@
         <v>350</v>
       </c>
       <c r="F724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G724" t="n">
         <v>2</v>
@@ -17044,7 +17044,7 @@
         <v>350</v>
       </c>
       <c r="F725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G725" t="n">
         <v>2</v>
@@ -17067,7 +17067,7 @@
         <v>350</v>
       </c>
       <c r="F726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G726" t="n">
         <v>2</v>
@@ -17090,7 +17090,7 @@
         <v>350</v>
       </c>
       <c r="F727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G727" t="n">
         <v>2</v>
@@ -17113,7 +17113,7 @@
         <v>350</v>
       </c>
       <c r="F728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G728" t="n">
         <v>2</v>
@@ -17136,7 +17136,7 @@
         <v>350</v>
       </c>
       <c r="F729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G729" t="n">
         <v>2</v>
@@ -17159,7 +17159,7 @@
         <v>351</v>
       </c>
       <c r="F730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G730" t="n">
         <v>2</v>
@@ -17228,7 +17228,7 @@
         <v>351</v>
       </c>
       <c r="F733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G733" t="n">
         <v>2</v>
@@ -17251,7 +17251,7 @@
         <v>352</v>
       </c>
       <c r="F734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G734" t="n">
         <v>2</v>
@@ -17343,7 +17343,7 @@
         <v>352</v>
       </c>
       <c r="F738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G738" t="n">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>352</v>
       </c>
       <c r="F739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G739" t="n">
         <v>2</v>
@@ -17389,7 +17389,7 @@
         <v>352</v>
       </c>
       <c r="F740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G740" t="n">
         <v>2</v>
@@ -17412,7 +17412,7 @@
         <v>352</v>
       </c>
       <c r="F741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G741" t="n">
         <v>2</v>
@@ -17435,7 +17435,7 @@
         <v>352</v>
       </c>
       <c r="F742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G742" t="n">
         <v>2</v>
@@ -17458,7 +17458,7 @@
         <v>352</v>
       </c>
       <c r="F743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G743" t="n">
         <v>2</v>
@@ -17481,7 +17481,7 @@
         <v>352</v>
       </c>
       <c r="F744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G744" t="n">
         <v>2</v>
@@ -17573,7 +17573,7 @@
         <v>353</v>
       </c>
       <c r="F748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G748" t="n">
         <v>2</v>
@@ -17596,7 +17596,7 @@
         <v>353</v>
       </c>
       <c r="F749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G749" t="n">
         <v>2</v>
@@ -17619,7 +17619,7 @@
         <v>352</v>
       </c>
       <c r="F750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G750" t="n">
         <v>2</v>
@@ -17642,7 +17642,7 @@
         <v>351</v>
       </c>
       <c r="F751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G751" t="n">
         <v>2</v>
@@ -17665,7 +17665,7 @@
         <v>351</v>
       </c>
       <c r="F752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G752" t="n">
         <v>2</v>
@@ -17921,7 +17921,7 @@
         <v>0</v>
       </c>
       <c r="G763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764">
@@ -17944,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="G764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765">
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
       <c r="G765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766">
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="G766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767">
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="G767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768">
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="G768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769">
@@ -18059,7 +18059,7 @@
         <v>0</v>
       </c>
       <c r="G769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -18082,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="G770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="G771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -18128,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="G772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773">
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="G773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774">
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
       <c r="G774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="G775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -18220,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="G776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777">
@@ -18243,7 +18243,7 @@
         <v>0</v>
       </c>
       <c r="G777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778">
@@ -18266,7 +18266,7 @@
         <v>0</v>
       </c>
       <c r="G778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="G779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780">
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="G780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781">
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="G781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="G782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783">
@@ -18381,7 +18381,7 @@
         <v>0</v>
       </c>
       <c r="G783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="G784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -18427,7 +18427,7 @@
         <v>0</v>
       </c>
       <c r="G785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786">
@@ -18450,7 +18450,7 @@
         <v>0</v>
       </c>
       <c r="G786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -18473,7 +18473,7 @@
         <v>0</v>
       </c>
       <c r="G787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788">
@@ -18496,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="G788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789">
@@ -18519,7 +18519,7 @@
         <v>0</v>
       </c>
       <c r="G789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790">
@@ -18542,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="G790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791">
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="G791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -18588,7 +18588,7 @@
         <v>0</v>
       </c>
       <c r="G792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -18611,7 +18611,7 @@
         <v>0</v>
       </c>
       <c r="G793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794">
@@ -18634,7 +18634,7 @@
         <v>0</v>
       </c>
       <c r="G794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795">
@@ -18657,7 +18657,7 @@
         <v>0</v>
       </c>
       <c r="G795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796">
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="G796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797">
@@ -18703,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="G797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798">
@@ -18726,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="G798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799">
@@ -18772,7 +18772,7 @@
         <v>0</v>
       </c>
       <c r="G800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801">
@@ -18795,10 +18795,10 @@
         <v>0</v>
       </c>
       <c r="G801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>